--- a/accuknox.xlsx
+++ b/accuknox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swarnim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D972276-10B3-4439-86F3-940818BC57FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68743639-1672-4CC7-8EAC-9DE30CF5F939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EFD565B6-8F08-423E-91F7-F47882483D43}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EFD565B6-8F08-423E-91F7-F47882483D43}"/>
   </bookViews>
   <sheets>
     <sheet name="AccuKnox_User_Management_Test_C" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -258,21 +258,57 @@
   <si>
     <t>"Success: Successfully Saved" toast message appears.User is redirected to the user list.</t>
   </si>
+  <si>
+    <t>System behaved as expected</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>TC ID</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>Verify that the User Role update is reflected in the grid</t>
+  </si>
+  <si>
+    <t>User 'NewUser' role was changed to 'ESS'</t>
+  </si>
+  <si>
+    <t>1. Navigate to Admin Page
+2. Search for 'NewUser'
+3. Check the 'User Role' column in the result table</t>
+  </si>
+  <si>
+    <t>Username: NewUser</t>
+  </si>
+  <si>
+    <t>The 'User Role' column shows 'ESS' (not 'Admin').</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -290,8 +326,30 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,30 +358,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -331,44 +371,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,133 +734,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0C4690-1A80-4EA8-9BA3-941447F620CF}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.4" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="29.4" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="72" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="118.2" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" ht="118.2" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="70.2" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" ht="70.2" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="68.400000000000006" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" ht="68.400000000000006" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="66.599999999999994" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" ht="68.400000000000006" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="66.599999999999994" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>